--- a/Deliverable_4/Blackbear-Consultants_Deliverable_4_ProductBacklog_6.xlsx
+++ b/Deliverable_4/Blackbear-Consultants_Deliverable_4_ProductBacklog_6.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdullahkarim/Documents/GitHub/Blackbear-Consultants/Deliverable_4/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BD7B3B-73C4-4A4C-B0A6-603173644707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="17220" windowHeight="15540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprints 1-3" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sprint 4 and 5" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sprints 1-3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 4 and 5" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_gjdgxs" vbProcedure="false">'Sprints 1-3'!$B$23</definedName>
+    <definedName name="_gjdgxs" localSheetId="0">'Sprints 1-3'!$B$23</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,173 +29,175 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">Story ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (instructor), I want to have access to a visual representation of the progress of the child so that I know how the child progressed throughout the use of the application.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (instructor), I want to have access to what the child is struggling on in the application so that I know what to work on with the child in person.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority Levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status Levels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (child), I want the game to seem fun and colorful so that I keep playing to learn my shapes and colors, while not seeming overly frustrating while learning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H (High)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W (Waiting)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (instructor) I want the app to probe the child to get an understanding of what they know so that the app can better teach the child things that they have not learned, as well as not teach them things they have already mastered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M (Medium)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP (In Progress)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (child), I want to feel reaffirmed even when I get things wrong, so that I feel motivated to continue learning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L (Low)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T (Testing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (parent), I want to be aware of what my child is working on so that I can positively reinforce them while at home.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D (Done)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (parent), I want to be aware of what my child mastered so that I can positively reinforce them while at home.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (instructor), I want the game to be locked in when I hand it to the child, so they cannot access any settings or sensitive information in the app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (child), I want the game to recognize when I am struggling and revert back to something, I was more successful at so that I stay engaged and do not get frustrated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Each point is worth about 2 hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (child), who has not yet learned to read using the application, I want the game to have many audio cues to make it as accessible to me as it is to anyone else.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (parent), I need the ability to continue teaching my children what they learned in school without the use of real world objects, because real world objects are expensive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (parent), I want a method that will help my child learn in a proven and regulated way, so that I don’t need to spend so much time teaching them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (parent), I need an app that can help me automate the learning process of shapes and colors to reach more students.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (parent), I want my child to learn shapes so that they easily recognize and understand shapes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (child), I want the app games to give me immediate feedback, so I can correct my mistakes early.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (child), I want to be able to redo tasks so I can improve my learning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (child), I want to be able to adjust sensory information (such as brightness or volume), so that I don't get agitated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (instructor), I need to be able to access the data collected from the application because of updating and tracking goals and trials for the client.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (instructor), I need to be able to log into my client’s (child’s) saved profile because of allowing the application to use the data to continue working on goals and skills already mastered.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (parent), I need to be able to access my child’s data because of being able to access up to date information on how my child is performing in school and at home.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (instructor), I want the interface of Teaching Tasks to be suitable for all of my clients (children) so that they will be able to properly use and learn from Teaching Tasks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (instructor), I want Teaching Tasks to follow the proper (ABA and DTI) guidelines when educating my clients so that I know my client will be able to learn and not get frustrated and not want to continue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (instructor), I want there to be positive reinforcement so that my clients (children) know when they have done something right.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (instructor), I want to add initial diagnostic information so that my clients (children) can pick up where they left off from my teaching.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (instructor), I want Teaching Tasks to be updateable with new information based on what I teach the kids in school.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user (parent), I want to have access to a variety of games that teach my child different skills like reading, writing, and math.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, 3, 4, 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2, 3, 4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="53">
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Sprint #</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I want to have access to a visual representation of the progress of the child so that I know how the child progressed throughout the use of the application.</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I want to have access to what the child is struggling on in the application so that I know what to work on with the child in person.</t>
+  </si>
+  <si>
+    <t>Priority Levels</t>
+  </si>
+  <si>
+    <t>Status Levels</t>
+  </si>
+  <si>
+    <t>Story Points</t>
+  </si>
+  <si>
+    <t>As a user (child), I want the game to seem fun and colorful so that I keep playing to learn my shapes and colors, while not seeming overly frustrating while learning.</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>H (High)</t>
+  </si>
+  <si>
+    <t>W (Waiting)</t>
+  </si>
+  <si>
+    <t>As a user (instructor) I want the app to probe the child to get an understanding of what they know so that the app can better teach the child things that they have not learned, as well as not teach them things they have already mastered</t>
+  </si>
+  <si>
+    <t>M (Medium)</t>
+  </si>
+  <si>
+    <t>IP (In Progress)</t>
+  </si>
+  <si>
+    <t>As a user (child), I want to feel reaffirmed even when I get things wrong, so that I feel motivated to continue learning.</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L (Low)</t>
+  </si>
+  <si>
+    <t>T (Testing)</t>
+  </si>
+  <si>
+    <t>As a user (parent), I want to be aware of what my child is working on so that I can positively reinforce them while at home.</t>
+  </si>
+  <si>
+    <t>D (Done)</t>
+  </si>
+  <si>
+    <t>As a user (parent), I want to be aware of what my child mastered so that I can positively reinforce them while at home.</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I want the game to be locked in when I hand it to the child, so they cannot access any settings or sensitive information in the app</t>
+  </si>
+  <si>
+    <t>As a user (child), I want the game to recognize when I am struggling and revert back to something, I was more successful at so that I stay engaged and do not get frustrated.</t>
+  </si>
+  <si>
+    <t>*Each point is worth about 2 hours</t>
+  </si>
+  <si>
+    <t>As a user (child), who has not yet learned to read using the application, I want the game to have many audio cues to make it as accessible to me as it is to anyone else.</t>
+  </si>
+  <si>
+    <t>As a user (parent), I need the ability to continue teaching my children what they learned in school without the use of real world objects, because real world objects are expensive.</t>
+  </si>
+  <si>
+    <t>As a user (parent), I want a method that will help my child learn in a proven and regulated way, so that I don’t need to spend so much time teaching them.</t>
+  </si>
+  <si>
+    <t>As a user (parent), I need an app that can help me automate the learning process of shapes and colors to reach more students.</t>
+  </si>
+  <si>
+    <t>As a user (parent), I want my child to learn shapes so that they easily recognize and understand shapes.</t>
+  </si>
+  <si>
+    <t>As a user (child), I want the app games to give me immediate feedback, so I can correct my mistakes early.</t>
+  </si>
+  <si>
+    <t>As a user (child), I want to be able to redo tasks so I can improve my learning.</t>
+  </si>
+  <si>
+    <t>As a user (child), I want to be able to adjust sensory information (such as brightness or volume), so that I don't get agitated.</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I need to be able to access the data collected from the application because of updating and tracking goals and trials for the client.</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I need to be able to log into my client’s (child’s) saved profile because of allowing the application to use the data to continue working on goals and skills already mastered.</t>
+  </si>
+  <si>
+    <t>As a user (parent), I need to be able to access my child’s data because of being able to access up to date information on how my child is performing in school and at home.</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I want the interface of Teaching Tasks to be suitable for all of my clients (children) so that they will be able to properly use and learn from Teaching Tasks.</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I want Teaching Tasks to follow the proper (ABA and DTI) guidelines when educating my clients so that I know my client will be able to learn and not get frustrated and not want to continue.</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I want there to be positive reinforcement so that my clients (children) know when they have done something right.</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I want to add initial diagnostic information so that my clients (children) can pick up where they left off from my teaching.</t>
+  </si>
+  <si>
+    <t>As a user (instructor), I want Teaching Tasks to be updateable with new information based on what I teach the kids in school.</t>
+  </si>
+  <si>
+    <t>As a user (parent), I want to have access to a variety of games that teach my child different skills like reading, writing, and math.</t>
+  </si>
+  <si>
+    <t>Sp</t>
+  </si>
+  <si>
+    <t>2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>2, 3, 4</t>
+  </si>
+  <si>
+    <t>Future</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -199,22 +206,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -231,251 +223,529 @@
     </fill>
   </fills>
   <borders count="13">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="136.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.5"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="136.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="6" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,14 +765,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -511,7 +781,7 @@
       <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>6</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -519,8 +789,8 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -533,7 +803,7 @@
       <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="11">
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -546,14 +816,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -562,7 +832,7 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="11" t="n">
+      <c r="F4" s="11">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -571,13 +841,13 @@
       <c r="I4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="15">
         <v>1</v>
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -590,7 +860,7 @@
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="11">
         <v>2</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -599,13 +869,13 @@
       <c r="I5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="13" t="n">
+      <c r="J5" s="13">
         <v>2</v>
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -618,7 +888,7 @@
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="11">
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -627,13 +897,13 @@
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="13">
         <v>3</v>
       </c>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -646,20 +916,20 @@
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="11">
         <v>2</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="13">
         <v>4</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -672,23 +942,23 @@
       <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="11">
         <v>1</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="13">
         <v>5</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+    <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -697,16 +967,16 @@
       <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="11">
         <v>4</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>6</v>
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -719,15 +989,15 @@
       <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="11">
         <v>5</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -740,18 +1010,18 @@
       <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -760,13 +1030,13 @@
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="11">
         <v>1</v>
       </c>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -779,12 +1049,12 @@
       <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -797,18 +1067,18 @@
       <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -817,12 +1087,12 @@
       <c r="E15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -835,18 +1105,18 @@
       <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -855,12 +1125,12 @@
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="F17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -873,12 +1143,12 @@
       <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -891,18 +1161,18 @@
       <c r="E19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -911,12 +1181,12 @@
       <c r="E20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -929,12 +1199,12 @@
       <c r="E21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="F21" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -947,12 +1217,12 @@
       <c r="E22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="F22" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -965,12 +1235,12 @@
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -983,12 +1253,12 @@
       <c r="E24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="11" t="n">
+      <c r="F24" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -1001,12 +1271,12 @@
       <c r="E25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1019,12 +1289,12 @@
       <c r="E26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="11" t="n">
+      <c r="F26" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
@@ -1037,53 +1307,45 @@
       <c r="E27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="n">
+      <c r="F27" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F31" s="16"/>
       <c r="G31" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" s="21"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="136.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.5"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="136.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="6" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,8 +1365,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1119,7 +1381,7 @@
       <c r="E2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="6">
         <v>6</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -1127,8 +1389,8 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -1143,7 +1405,7 @@
       <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="11">
         <v>3</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1156,14 +1418,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+    <row r="4" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -1172,7 +1434,7 @@
       <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="11" t="n">
+      <c r="F4" s="11">
         <v>2</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -1181,26 +1443,28 @@
       <c r="I4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="15">
         <v>1</v>
       </c>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="11">
         <v>2</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -1209,13 +1473,13 @@
       <c r="I5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="13" t="n">
+      <c r="J5" s="13">
         <v>2</v>
       </c>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1230,7 +1494,7 @@
       <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="11">
         <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1239,62 +1503,66 @@
       <c r="I6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="13" t="n">
+      <c r="J6" s="13">
         <v>3</v>
       </c>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="11">
         <v>2</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="13" t="n">
+      <c r="J7" s="13">
         <v>4</v>
       </c>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="11" t="n">
+      <c r="F8" s="11">
         <v>1</v>
       </c>
-      <c r="J8" s="13" t="n">
+      <c r="J8" s="13">
         <v>5</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+    <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1309,61 +1577,65 @@
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="11">
         <v>4</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>6</v>
       </c>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+    <row r="10" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="11" t="n">
+      <c r="F10" s="11">
         <v>5</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1372,19 +1644,19 @@
       <c r="E12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="11" t="n">
+      <c r="F12" s="11">
         <v>1</v>
       </c>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1393,18 +1665,18 @@
       <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -1413,18 +1685,18 @@
       <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="11" t="n">
+      <c r="F14" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>4</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1433,18 +1705,18 @@
       <c r="E15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="11" t="n">
+      <c r="F15" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1453,36 +1725,38 @@
       <c r="E16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="F17" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>6</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1491,12 +1765,12 @@
       <c r="E18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="11" t="n">
+      <c r="F18" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+    <row r="19" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -1511,12 +1785,12 @@
       <c r="E19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="11" t="n">
+      <c r="F19" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1531,12 +1805,12 @@
       <c r="E20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -1551,18 +1825,18 @@
       <c r="E21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="F21" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="5">
         <v>6</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1571,114 +1845,119 @@
       <c r="E22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="F22" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="11" t="n">
+      <c r="F23" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="11" t="n">
+      <c r="F24" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="11" t="n">
+      <c r="F26" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="D27" s="19" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="n">
+      <c r="F27" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F31" s="16"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" s="21"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>